--- a/pred_ohlcv/54_21/2020-01-22 AMO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 AMO ohlcv.xlsx
@@ -6268,7 +6268,7 @@
         <v>49173189.98838101</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>42845836.13998102</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>40712879.96748102</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>43045173.19138102</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>42265674.30838102</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>40495865.78518103</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>40211159.81918103</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>38766226.23418103</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>35486486.46558104</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>35488701.70158104</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>34077671.16658104</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>34563125.24448104</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>40512899.68338104</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>38991684.23738104</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>40563776.47638104</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>38318067.24738104</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>36758458.55238104</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>35669506.98738104</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>36860167.70138104</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>35223115.27448104</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-69395260.9731679</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-75596731.15146786</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-74702722.12046786</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-77312889.13146786</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-76342598.23946786</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-74499303.82246786</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-75435691.66446787</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-74380643.14946787</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-75698440.29846787</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-77825488.85346787</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-77007761.68446787</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-77969576.81346786</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-78122140.53646787</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-77800061.56646787</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-77797953.30286786</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-78145459.56086786</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-77081935.28286786</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-76607292.58986787</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-75916701.85686788</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-77226023.24386787</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-76340489.97586787</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-77251450.53086787</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-76484577.93586788</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-75760084.15286787</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-76022832.78686787</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-74527044.62786788</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-74060877.69686788</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-75387150.60886788</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-123208544.7878679</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-130170518.0588679</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-129293460.5538679</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-128606923.8008679</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-128604923.8008679</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-130808254.2178679</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-131889020.8718679</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-131790338.0906679</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-132078514.0116679</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-130777668.3876679</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-129561580.3866679</v>
       </c>
       <c r="H564">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-130014849.7726679</v>
       </c>
       <c r="H567">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-131451307.5956679</v>
       </c>
       <c r="H568">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-133152568.0326678</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-22 AMO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 AMO ohlcv.xlsx
@@ -6242,7 +6242,7 @@
         <v>49173189.98838101</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>49173189.98838101</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>42845836.13998102</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>40712879.96748102</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>41794261.88518103</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>40211159.81918103</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>38766226.23418103</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>35486486.46558104</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>35488701.70158104</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>34077671.16658104</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>34563125.24448104</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>40512899.68338104</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>40563776.47638104</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>38318067.24738104</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>36758458.55238104</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>35669506.98738104</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>36860167.70138104</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>35223115.27448104</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-69395260.9731679</v>
       </c>
       <c r="H469">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-75596731.15146786</v>
       </c>
       <c r="H495">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-74702722.12046786</v>
       </c>
       <c r="H498">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-77312889.13146786</v>
       </c>
       <c r="H501">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-76342598.23946786</v>
       </c>
       <c r="H502">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-74499303.82246786</v>
       </c>
       <c r="H505">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-75435691.66446787</v>
       </c>
       <c r="H508">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-74380643.14946787</v>
       </c>
       <c r="H509">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-75698440.29846787</v>
       </c>
       <c r="H510">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-77825488.85346787</v>
       </c>
       <c r="H512">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-77007761.68446787</v>
       </c>
       <c r="H513">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-77969576.81346786</v>
       </c>
       <c r="H514">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-78122140.53646787</v>
       </c>
       <c r="H518">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-77800061.56646787</v>
       </c>
       <c r="H520">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-77797953.30286786</v>
       </c>
       <c r="H521">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-78145459.56086786</v>
       </c>
       <c r="H523">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-77081935.28286786</v>
       </c>
       <c r="H524">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-76607292.58986787</v>
       </c>
       <c r="H526">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-75916701.85686788</v>
       </c>
       <c r="H527">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-77226023.24386787</v>
       </c>
       <c r="H528">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-76340489.97586787</v>
       </c>
       <c r="H529">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-77251450.53086787</v>
       </c>
       <c r="H530">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-76484577.93586788</v>
       </c>
       <c r="H531">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-75760084.15286787</v>
       </c>
       <c r="H532">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-76022832.78686787</v>
       </c>
       <c r="H535">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-74527044.62786788</v>
       </c>
       <c r="H536">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-74060877.69686788</v>
       </c>
       <c r="H538">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-75387150.60886788</v>
       </c>
       <c r="H539">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-123208544.7878679</v>
       </c>
       <c r="H540">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-130170518.0588679</v>
       </c>
       <c r="H551">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-129293460.5538679</v>
       </c>
       <c r="H552">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-128606923.8008679</v>
       </c>
       <c r="H554">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-128604923.8008679</v>
       </c>
       <c r="H555">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-130808254.2178679</v>
       </c>
       <c r="H558">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-131889020.8718679</v>
       </c>
       <c r="H559">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-131790338.0906679</v>
       </c>
       <c r="H560">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-132078514.0116679</v>
       </c>
       <c r="H562">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-130481016.7036679</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-130014849.7726679</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-131451307.5956679</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-130353880.2686679</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-131069898.2886679</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-132150374.0916679</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:8">
